--- a/biology/Zoologie/Conus_sanguinolentus/Conus_sanguinolentus.xlsx
+++ b/biology/Zoologie/Conus_sanguinolentus/Conus_sanguinolentus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus sanguinolentus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 22 mm et 65 mm. La coquille a une couleur blanc rosé. elle est plutôt étroite avec des stries longitudinales continues, mais presque obsolètes, avec des marrons[1]. .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 22 mm et 65 mm. La coquille a une couleur blanc rosé. elle est plutôt étroite avec des stries longitudinales continues, mais presque obsolètes, avec des marrons. .
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans la mer Rouge, dans l'océan Indien au large de l'Afrique du Sud, d'Aldabra et des îles Mascareignes ; au large de l'Indochine, de l'Indo-Malaisie ; dans le Pacifique occidental et au large de l'Australie (Territoire du Nord, Queensland et Australie-Occidentale).
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est largement distribuée dans l'Indo-Pacifique. Elle est très commune dans les eaux peu profondes dans toute son aire de répartition. Il n'y a pas de menaces majeures connues pour cette espèce. Cette espèce est classée dans la catégorie "préoccupation mineure"[2].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est largement distribuée dans l'Indo-Pacifique. Elle est très commune dans les eaux peu profondes dans toute son aire de répartition. Il n'y a pas de menaces majeures connues pour cette espèce. Cette espèce est classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_sanguinolentus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_sanguinolentus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus sanguinolentus a été décrite pour la première fois en 1834 par le naturalistes français Jean René Constant Quoy dans « Voyage de la corvette l'Astrolabe : exécuté par ordre du roi, pendant les années 1826-1827-1828-1829, sous le commandement de M J Dumont d'Urville »[3],[4].
-Synonymes
-Conus (Lividoconus) sanguinolentus Quoy &amp; Gaimard, 1834 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus sanguinolentus a été décrite pour la première fois en 1834 par le naturalistes français Jean René Constant Quoy dans « Voyage de la corvette l'Astrolabe : exécuté par ordre du roi, pendant les années 1826-1827-1828-1829, sous le commandement de M J Dumont d'Urville »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_sanguinolentus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_sanguinolentus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Lividoconus) sanguinolentus Quoy &amp; Gaimard, 1834 · appellation alternative
 Lividoconus sanguinolentus (Quoy &amp; Gaimard, 1834) · non accepté</t>
         </is>
       </c>
